--- a/2023春/周三8点班考勤表.xlsx
+++ b/2023春/周三8点班考勤表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juncker/助教/2023春/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\读博\助教\2023春\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64908789-13F4-E546-AA33-50786673AB6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
   <si>
     <t>2022-2023春季学期《经济学原理Ⅱ》考勤表</t>
   </si>
@@ -338,13 +337,17 @@
   </si>
   <si>
     <t>期中考试签到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中考试成绩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -469,6 +472,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -486,12 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,97 +809,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:24" ht="32.85" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -952,18 +958,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="14" t="s">
+    <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>8</v>
@@ -1014,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25" customHeight="1">
+    <row r="5" spans="1:24" ht="24.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1027,14 +1033,16 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>82</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1052,7 +1060,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="25" customHeight="1">
+    <row r="6" spans="1:24" ht="24.95" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1065,14 +1073,16 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>92</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1090,7 +1100,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="16.25" customHeight="1">
+    <row r="7" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1103,14 +1113,16 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>89</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1128,7 +1140,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="16.25" customHeight="1">
+    <row r="8" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1141,14 +1153,16 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>55</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1166,7 +1180,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="16.25" customHeight="1">
+    <row r="9" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1179,14 +1193,16 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>75</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1204,7 +1220,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="16.25" customHeight="1">
+    <row r="10" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1217,14 +1233,16 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>89</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1242,7 +1260,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="16.25" customHeight="1">
+    <row r="11" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1255,14 +1273,16 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>92</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1280,7 +1300,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="16.25" customHeight="1">
+    <row r="12" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1293,14 +1313,16 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>86</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1318,7 +1340,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="16.25" customHeight="1">
+    <row r="13" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1331,14 +1353,16 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>96</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1356,7 +1380,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="16.25" customHeight="1">
+    <row r="14" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1369,14 +1393,16 @@
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>51</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1394,7 +1420,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="16.25" customHeight="1">
+    <row r="15" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1407,14 +1433,16 @@
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>98</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1432,7 +1460,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="16.25" customHeight="1">
+    <row r="16" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1445,14 +1473,16 @@
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>63</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1470,7 +1500,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="16.25" customHeight="1">
+    <row r="17" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1483,14 +1513,16 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>83</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1508,7 +1540,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="16.25" customHeight="1">
+    <row r="18" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1521,14 +1553,16 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>88</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1546,7 +1580,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="16.25" customHeight="1">
+    <row r="19" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1559,14 +1593,16 @@
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>86</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1584,7 +1620,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="16.25" customHeight="1">
+    <row r="20" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1597,14 +1633,16 @@
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>81</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1622,7 +1660,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="16.25" customHeight="1">
+    <row r="21" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1635,14 +1673,16 @@
       <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="E21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>79</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1660,7 +1700,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="16.25" customHeight="1">
+    <row r="22" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1673,14 +1713,16 @@
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>86</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1698,7 +1740,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="16.25" customHeight="1">
+    <row r="23" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1711,14 +1753,16 @@
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>76</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1736,7 +1780,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="16.25" customHeight="1">
+    <row r="24" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1749,14 +1793,16 @@
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>90</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1774,7 +1820,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="16.25" customHeight="1">
+    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1787,14 +1833,16 @@
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>93</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1812,7 +1860,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="16.25" customHeight="1">
+    <row r="26" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1825,14 +1873,16 @@
       <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="E26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>75</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1850,7 +1900,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="16.25" customHeight="1">
+    <row r="27" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1863,14 +1913,16 @@
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>94</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1888,7 +1940,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="16.25" customHeight="1">
+    <row r="28" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1901,14 +1953,16 @@
       <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>60</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1926,7 +1980,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="16.25" customHeight="1">
+    <row r="29" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1939,14 +1993,16 @@
       <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="15">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1"/>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>90</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1964,7 +2020,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="16.25" customHeight="1">
+    <row r="30" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1977,14 +2033,16 @@
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>96</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2002,7 +2060,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="16.25" customHeight="1">
+    <row r="31" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2015,14 +2073,16 @@
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>90</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2040,7 +2100,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="16.25" customHeight="1">
+    <row r="32" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2053,14 +2113,16 @@
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10"/>
+      <c r="E32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>93</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2078,7 +2140,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="16.25" customHeight="1">
+    <row r="33" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2091,14 +2153,16 @@
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="10"/>
+      <c r="E33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>88</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2116,7 +2180,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="16.25" customHeight="1">
+    <row r="34" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2129,14 +2193,16 @@
       <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="E34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>60</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2154,7 +2220,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="16.25" customHeight="1">
+    <row r="35" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2167,14 +2233,16 @@
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="10"/>
+      <c r="E35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>75</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2192,7 +2260,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="16.25" customHeight="1">
+    <row r="36" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2205,14 +2273,16 @@
       <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="E36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>82</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2230,7 +2300,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="16.25" customHeight="1">
+    <row r="37" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2243,14 +2313,16 @@
       <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="E37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="12"/>
       <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>89</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2268,7 +2340,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="16.25" customHeight="1">
+    <row r="38" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2281,14 +2353,16 @@
       <c r="D38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="10"/>
+      <c r="E38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>96</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2306,7 +2380,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="16.25" customHeight="1">
+    <row r="39" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2319,14 +2393,16 @@
       <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>29</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2344,7 +2420,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="16.25" customHeight="1">
+    <row r="40" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2357,14 +2433,16 @@
       <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="E40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>52</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2382,7 +2460,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="16.25" customHeight="1">
+    <row r="41" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2395,14 +2473,16 @@
       <c r="D41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="10"/>
+      <c r="E41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>48</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2420,7 +2500,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="16.25" customHeight="1">
+    <row r="42" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2433,14 +2513,16 @@
       <c r="D42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>75</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2458,7 +2540,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="16.25" customHeight="1">
+    <row r="43" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2471,14 +2553,16 @@
       <c r="D43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="10"/>
+      <c r="E43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="1">
         <v>1</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>68</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2496,7 +2580,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="16.25" customHeight="1">
+    <row r="44" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2509,14 +2593,16 @@
       <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="10"/>
+      <c r="E44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="1">
         <v>1</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>92</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2534,7 +2620,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="16.25" customHeight="1">
+    <row r="45" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2547,14 +2633,16 @@
       <c r="D45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="10"/>
+      <c r="E45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="12"/>
       <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <v>90</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2572,7 +2660,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="16.25" customHeight="1">
+    <row r="46" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2585,14 +2673,16 @@
       <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="10"/>
+      <c r="E46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>87</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2610,7 +2700,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="16.25" customHeight="1">
+    <row r="47" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2623,14 +2713,16 @@
       <c r="D47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="10"/>
+      <c r="E47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="12"/>
       <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1">
+        <v>79</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2661,14 +2753,16 @@
       <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="E48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="1">
         <v>1</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1">
+        <v>77</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2686,7 +2780,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" ht="38" customHeight="1">
+    <row r="49" spans="1:24" ht="38.1" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2699,10 +2793,10 @@
       <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="10"/>
+      <c r="E49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2722,29 +2816,29 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" ht="16.25" customHeight="1">
+    <row r="50" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="D50" s="5"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:24" ht="16.25" customHeight="1">
+    <row r="51" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="D51" s="5"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:24" ht="25.75" customHeight="1">
+    <row r="52" spans="1:24" ht="25.7" customHeight="1">
       <c r="D52" s="5"/>
-      <c r="M52" s="12" t="s">
+      <c r="M52" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="N52" s="12"/>
+      <c r="N52" s="14"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="13" t="s">
+      <c r="R52" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
       <c r="X52" s="6"/>

--- a/2023春/周三8点班考勤表.xlsx
+++ b/2023春/周三8点班考勤表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
   <si>
     <t>2022-2023春季学期《经济学原理Ⅱ》考勤表</t>
   </si>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>期中考试成绩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓考</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -381,12 +385,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -447,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,23 +488,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +826,8 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
@@ -831,66 +844,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.85" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -960,7 +973,7 @@
     </row>
     <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1963,7 +1976,9 @@
       <c r="H28" s="1">
         <v>60</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I28" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2826,25 +2841,72 @@
     </row>
     <row r="52" spans="1:24" ht="25.7" customHeight="1">
       <c r="D52" s="5"/>
-      <c r="M52" s="14" t="s">
+      <c r="M52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N52" s="14"/>
+      <c r="N52" s="10"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="15" t="s">
+      <c r="R52" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
       <c r="X52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="R52:U52"/>
     <mergeCell ref="E45:F45"/>
@@ -2852,53 +2914,6 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39500001072883606" right="0.39500001072883606" top="0.26899999380111694" bottom="0.26899999380111694" header="0" footer="0"/>

--- a/2023春/周三8点班考勤表.xlsx
+++ b/2023春/周三8点班考勤表.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\读博\助教\2023春\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juncker/助教/2023春/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CE9BA-BB98-F149-AE0A-656DBD292CCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$4:$X$49</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="110">
   <si>
     <t>2022-2023春季学期《经济学原理Ⅱ》考勤表</t>
   </si>
@@ -345,13 +349,21 @@
   </si>
   <si>
     <t>缓考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末考勤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退课</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -457,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,14 +500,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,10 +509,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -822,100 +837,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="6" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="9.875" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.85" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" ht="32.75" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -971,13 +987,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+    <row r="4" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="8" t="s">
         <v>105</v>
       </c>
@@ -987,8 +1003,8 @@
       <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
+      <c r="J4" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
@@ -1033,7 +1049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="24.95" customHeight="1">
+    <row r="5" spans="1:24" ht="25" hidden="1" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1046,10 +1062,10 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -1057,7 +1073,9 @@
         <v>82</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1073,7 +1091,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="24.95" customHeight="1">
+    <row r="6" spans="1:24" ht="25" hidden="1" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1086,10 +1104,10 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -1097,7 +1115,9 @@
         <v>92</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1113,7 +1133,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="7" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1126,10 +1146,10 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -1137,7 +1157,9 @@
         <v>89</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1153,7 +1175,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="8" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1166,10 +1188,10 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -1177,7 +1199,9 @@
         <v>55</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1193,7 +1217,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="9" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1206,10 +1230,10 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -1217,7 +1241,9 @@
         <v>75</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1233,7 +1259,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="10" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1246,10 +1272,10 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -1257,7 +1283,9 @@
         <v>89</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1273,7 +1301,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="11" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1286,10 +1314,10 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -1297,7 +1325,9 @@
         <v>92</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1313,7 +1343,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="12" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1326,10 +1356,10 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -1337,7 +1367,9 @@
         <v>86</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1353,7 +1385,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="13" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1366,10 +1398,10 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="1">
         <v>1</v>
       </c>
@@ -1377,7 +1409,9 @@
         <v>96</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1393,7 +1427,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="14" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1406,10 +1440,10 @@
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="1">
         <v>1</v>
       </c>
@@ -1417,7 +1451,9 @@
         <v>51</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1433,7 +1469,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="15" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1446,10 +1482,10 @@
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
@@ -1457,7 +1493,9 @@
         <v>98</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1473,7 +1511,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="16" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1486,10 +1524,10 @@
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13"/>
       <c r="G16" s="1">
         <v>1</v>
       </c>
@@ -1497,7 +1535,9 @@
         <v>63</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1513,7 +1553,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="17" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1526,10 +1566,10 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -1537,7 +1577,9 @@
         <v>83</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1553,7 +1595,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="18" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1566,10 +1608,10 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="12"/>
+      <c r="E18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="1">
         <v>1</v>
       </c>
@@ -1577,7 +1619,9 @@
         <v>88</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1593,7 +1637,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="19" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1606,10 +1650,10 @@
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="E19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="13"/>
       <c r="G19" s="1">
         <v>1</v>
       </c>
@@ -1617,7 +1661,9 @@
         <v>86</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1633,7 +1679,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="20" spans="1:24" ht="16.25" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1646,10 +1692,10 @@
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="13"/>
       <c r="G20" s="1">
         <v>1</v>
       </c>
@@ -1657,7 +1703,9 @@
         <v>81</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1673,7 +1721,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="21" spans="1:24" ht="16.25" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1686,10 +1734,10 @@
       <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
@@ -1697,7 +1745,9 @@
         <v>79</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1713,7 +1763,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="22" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1726,10 +1776,10 @@
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="1">
         <v>1</v>
       </c>
@@ -1737,7 +1787,9 @@
         <v>86</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1753,7 +1805,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="23" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1766,10 +1818,10 @@
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="13"/>
       <c r="G23" s="1">
         <v>1</v>
       </c>
@@ -1777,7 +1829,9 @@
         <v>76</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1793,7 +1847,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1806,10 +1860,10 @@
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
@@ -1817,7 +1871,9 @@
         <v>90</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1833,7 +1889,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1846,10 +1902,10 @@
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
@@ -1857,7 +1913,9 @@
         <v>93</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1873,7 +1931,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="26" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1886,10 +1944,10 @@
       <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="13"/>
       <c r="G26" s="1">
         <v>1</v>
       </c>
@@ -1897,7 +1955,9 @@
         <v>75</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1913,7 +1973,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="27" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1926,10 +1986,10 @@
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="13"/>
       <c r="G27" s="1">
         <v>1</v>
       </c>
@@ -1937,7 +1997,9 @@
         <v>94</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1953,7 +2015,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="28" spans="1:24" ht="16.25" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1966,17 +2028,17 @@
       <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="13"/>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>60</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="10" t="s">
         <v>107</v>
       </c>
       <c r="J28" s="1"/>
@@ -1995,7 +2057,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="29" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2008,10 +2070,10 @@
       <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="9">
         <v>1</v>
       </c>
@@ -2019,7 +2081,9 @@
         <v>90</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2035,7 +2099,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="30" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2048,10 +2112,10 @@
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="12"/>
+      <c r="E30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="13"/>
       <c r="G30" s="1">
         <v>1</v>
       </c>
@@ -2059,7 +2123,9 @@
         <v>96</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2075,7 +2141,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="31" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2088,10 +2154,10 @@
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="12"/>
+      <c r="E31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13"/>
       <c r="G31" s="1">
         <v>1</v>
       </c>
@@ -2099,7 +2165,9 @@
         <v>90</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2115,7 +2183,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="32" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2128,10 +2196,10 @@
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="12"/>
+      <c r="E32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="13"/>
       <c r="G32" s="1">
         <v>1</v>
       </c>
@@ -2139,7 +2207,9 @@
         <v>93</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2155,7 +2225,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="33" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2168,10 +2238,10 @@
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="12"/>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="13"/>
       <c r="G33" s="1">
         <v>1</v>
       </c>
@@ -2179,7 +2249,9 @@
         <v>88</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2195,7 +2267,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="34" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2208,10 +2280,10 @@
       <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="12"/>
+      <c r="E34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="1">
         <v>1</v>
       </c>
@@ -2219,7 +2291,9 @@
         <v>60</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2235,7 +2309,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="35" spans="1:24" ht="16.25" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2248,10 +2322,10 @@
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="12"/>
+      <c r="E35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="1">
         <v>1</v>
       </c>
@@ -2259,7 +2333,9 @@
         <v>75</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2275,7 +2351,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="36" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2288,10 +2364,10 @@
       <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="12"/>
+      <c r="E36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="13"/>
       <c r="G36" s="1">
         <v>1</v>
       </c>
@@ -2299,7 +2375,9 @@
         <v>82</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2315,7 +2393,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="37" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2328,10 +2406,10 @@
       <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="12"/>
+      <c r="E37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="13"/>
       <c r="G37" s="1">
         <v>1</v>
       </c>
@@ -2339,7 +2417,9 @@
         <v>89</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2355,7 +2435,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="38" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2368,10 +2448,10 @@
       <c r="D38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="12"/>
+      <c r="E38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="13"/>
       <c r="G38" s="1">
         <v>1</v>
       </c>
@@ -2379,7 +2459,9 @@
         <v>96</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2395,7 +2477,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="39" spans="1:24" ht="16.25" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2408,10 +2490,10 @@
       <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="12"/>
+      <c r="E39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="13"/>
       <c r="G39" s="1">
         <v>1</v>
       </c>
@@ -2435,7 +2517,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="40" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2448,10 +2530,10 @@
       <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="12"/>
+      <c r="E40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="13"/>
       <c r="G40" s="1">
         <v>1</v>
       </c>
@@ -2459,7 +2541,9 @@
         <v>52</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2475,7 +2559,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="41" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2488,10 +2572,10 @@
       <c r="D41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="E41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="13"/>
       <c r="G41" s="1">
         <v>1</v>
       </c>
@@ -2499,7 +2583,9 @@
         <v>48</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2515,7 +2601,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="42" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2528,10 +2614,10 @@
       <c r="D42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="12"/>
+      <c r="E42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="13"/>
       <c r="G42" s="1">
         <v>1</v>
       </c>
@@ -2539,7 +2625,9 @@
         <v>75</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2555,7 +2643,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="43" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2568,10 +2656,10 @@
       <c r="D43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="12"/>
+      <c r="E43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="13"/>
       <c r="G43" s="1">
         <v>1</v>
       </c>
@@ -2579,7 +2667,9 @@
         <v>68</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2595,7 +2685,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="44" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2608,10 +2698,10 @@
       <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="E44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="13"/>
       <c r="G44" s="1">
         <v>1</v>
       </c>
@@ -2619,7 +2709,9 @@
         <v>92</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2635,7 +2727,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="45" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2648,10 +2740,10 @@
       <c r="D45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="12"/>
+      <c r="E45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="13"/>
       <c r="G45" s="1">
         <v>1</v>
       </c>
@@ -2659,7 +2751,9 @@
         <v>90</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2675,7 +2769,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="46" spans="1:24" ht="16.25" hidden="1" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2688,10 +2782,10 @@
       <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="12"/>
+      <c r="E46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="13"/>
       <c r="G46" s="1">
         <v>1</v>
       </c>
@@ -2699,7 +2793,9 @@
         <v>87</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2715,7 +2811,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="47" spans="1:24" ht="16.25" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2728,10 +2824,10 @@
       <c r="D47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="12"/>
+      <c r="E47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="13"/>
       <c r="G47" s="1">
         <v>1</v>
       </c>
@@ -2739,7 +2835,9 @@
         <v>79</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2755,7 +2853,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" hidden="1">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2768,10 +2866,10 @@
       <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="12"/>
+      <c r="E48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="13"/>
       <c r="G48" s="1">
         <v>1</v>
       </c>
@@ -2779,7 +2877,9 @@
         <v>77</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2795,7 +2895,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" ht="38.1" customHeight="1">
+    <row r="49" spans="1:24" ht="38" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2808,13 +2908,15 @@
       <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="12"/>
+      <c r="E49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="13"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2831,35 +2933,88 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="50" spans="1:24" ht="16.25" customHeight="1">
       <c r="D50" s="5"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="51" spans="1:24" ht="16.25" customHeight="1">
       <c r="D51" s="5"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:24" ht="25.7" customHeight="1">
+    <row r="52" spans="1:24" ht="25.75" customHeight="1">
       <c r="D52" s="5"/>
-      <c r="M52" s="10" t="s">
+      <c r="M52" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="N52" s="10"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
       <c r="X52" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:X49" xr:uid="{B617A880-F635-7A44-A2A1-228D5642895F}">
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="54">
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="R52:U52"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:A4"/>
@@ -2867,53 +3022,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="R52:U52"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39500001072883606" right="0.39500001072883606" top="0.26899999380111694" bottom="0.26899999380111694" header="0" footer="0"/>
